--- a/01-deploy-synergy-from-excel/synergy.obs.hpecic.net.xlsx
+++ b/01-deploy-synergy-from-excel/synergy.obs.hpecic.net.xlsx
@@ -970,9 +970,6 @@
   </si>
   <si>
     <t>#password</t>
-  </si>
-  <si>
-    <t>administrator</t>
   </si>
   <si>
     <t># time and locale setttings</t>
@@ -5163,6 +5160,9 @@
   </si>
   <si>
     <t>obs@cicGVA1234!</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -6045,7 +6045,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C7B0F21-7430-464B-906C-C94D6E6D6B12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7B0F21-7430-464B-906C-C94D6E6D6B12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6154,7 +6154,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01D0E9D9-B254-4185-8C92-46C8617F66F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D0E9D9-B254-4185-8C92-46C8617F66F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6263,7 +6263,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D04F323B-337A-4F30-82FA-13706B020497}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04F323B-337A-4F30-82FA-13706B020497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -6666,7 +6666,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6869,12 +6869,12 @@
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -6927,7 +6927,7 @@
     </row>
     <row r="9" spans="1:12" s="44" customFormat="1" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>99</v>
@@ -6946,10 +6946,10 @@
     <row r="10" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:12" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="126" t="s">
+        <v>898</v>
+      </c>
+      <c r="B12" s="126" t="s">
         <v>899</v>
-      </c>
-      <c r="B12" s="126" t="s">
-        <v>900</v>
       </c>
       <c r="C12" s="169"/>
     </row>
@@ -7002,41 +7002,41 @@
         <v>178</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>519</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -7075,63 +7075,63 @@
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="148" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="148" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F8" s="148" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="148" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J8" s="149" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K8" s="149" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L8" s="149" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="222.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C9" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>584</v>
-      </c>
       <c r="E9" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I9" s="43"/>
       <c r="J9" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M9" s="41"/>
     </row>
@@ -7152,66 +7152,66 @@
     </row>
     <row r="13" spans="1:13" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="150" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E15" t="s">
+        <v>949</v>
+      </c>
+      <c r="F15" s="54" t="s">
         <v>950</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>951</v>
       </c>
       <c r="G15" s="138"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="150" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D17" t="s">
+        <v>895</v>
+      </c>
+      <c r="E17" t="s">
         <v>896</v>
       </c>
-      <c r="E17" t="s">
-        <v>897</v>
-      </c>
       <c r="F17" s="54" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G17" s="138"/>
     </row>
     <row r="18" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="153" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="168" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G21" s="138"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="168" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G23" s="138"/>
     </row>
@@ -7248,19 +7248,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>580</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>581</v>
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
@@ -7269,14 +7269,14 @@
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -7337,7 +7337,7 @@
     </row>
     <row r="9" spans="1:15" s="80" customFormat="1" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
@@ -7347,7 +7347,7 @@
         <v>184</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
@@ -7611,37 +7611,37 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>668</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -7701,25 +7701,25 @@
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>620</v>
-      </c>
       <c r="C9" s="41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F9" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>562</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>563</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7735,105 +7735,105 @@
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="153" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E19" s="138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B20" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="E20" s="138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="153" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E26" s="138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="E27" s="138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -7878,25 +7878,25 @@
         <v>88</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>104</v>
@@ -7904,14 +7904,14 @@
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7953,13 +7953,13 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="149" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H8" s="149" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I8" s="149" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
@@ -7967,31 +7967,31 @@
     </row>
     <row r="9" spans="1:12" s="44" customFormat="1" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B9" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>571</v>
-      </c>
       <c r="D9" s="41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G9" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="H9" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="H9" s="43" t="s">
-        <v>606</v>
-      </c>
       <c r="I9" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
@@ -8002,113 +8002,113 @@
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:12" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C15" s="4">
         <v>162</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C17" s="4">
         <v>162</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="153" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="151" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C21" s="4">
         <v>162</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="151" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C23" s="4">
         <v>162</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>612</v>
-      </c>
       <c r="I23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="151" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C25" s="4">
         <v>162</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="I25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -8171,10 +8171,10 @@
         <v>81</v>
       </c>
       <c r="E1" s="94" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1" s="94" t="s">
         <v>435</v>
-      </c>
-      <c r="F1" s="94" t="s">
-        <v>436</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>75</v>
@@ -8192,7 +8192,7 @@
         <v>82</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -8264,7 +8264,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>16</v>
@@ -8273,16 +8273,16 @@
         <v>17</v>
       </c>
       <c r="E7" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>434</v>
-      </c>
       <c r="G7" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="51" t="s">
         <v>296</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>297</v>
       </c>
       <c r="I7" s="52" t="s">
         <v>83</v>
@@ -8294,7 +8294,7 @@
         <v>72</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8366,19 +8366,19 @@
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C15" s="4">
         <v>180</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="4">
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8413,19 +8413,19 @@
     </row>
     <row r="17" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C17" s="102">
         <v>181</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F17" s="105"/>
       <c r="G17" s="102">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="102" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -8464,13 +8464,13 @@
         <v>PROD_116</v>
       </c>
       <c r="B19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C19" s="4">
         <v>116</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -8499,13 +8499,13 @@
         <v>PROD_150</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C21" s="4">
         <v>150</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8536,13 +8536,13 @@
         <v>PROD_160</v>
       </c>
       <c r="B23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C23" s="4">
         <v>160</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -8571,13 +8571,13 @@
         <v>PROD_170</v>
       </c>
       <c r="B25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C25" s="4">
         <v>170</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -8617,13 +8617,13 @@
         <v>PROD_210</v>
       </c>
       <c r="B27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C27" s="4">
         <v>210</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -8652,13 +8652,13 @@
         <v>PROD_220</v>
       </c>
       <c r="B29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C29" s="4">
         <v>220</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -8698,13 +8698,13 @@
         <v>PROD_221</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C31" s="4">
         <v>221</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -8733,13 +8733,13 @@
         <v>PROD_230</v>
       </c>
       <c r="B33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C33" s="4">
         <v>230</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -8779,13 +8779,13 @@
         <v>PROD_240</v>
       </c>
       <c r="B35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C35" s="4">
         <v>240</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -9662,10 +9662,10 @@
         <v>88</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>80</v>
@@ -9677,18 +9677,18 @@
         <v>74</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="19"/>
       <c r="E6" s="19"/>
@@ -9781,34 +9781,34 @@
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="C10" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="43" t="s">
+      <c r="F10" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="I10" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>237</v>
-      </c>
       <c r="J10" s="83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="41"/>
@@ -9841,13 +9841,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" t="s">
         <v>416</v>
-      </c>
-      <c r="C15" t="s">
-        <v>417</v>
       </c>
       <c r="F15" s="4">
         <v>8</v>
@@ -9864,13 +9864,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C16" t="s">
         <v>416</v>
-      </c>
-      <c r="C16" t="s">
-        <v>417</v>
       </c>
       <c r="F16" s="4">
         <v>8</v>
@@ -9887,10 +9887,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E18">
         <v>1206</v>
@@ -9939,16 +9939,16 @@
         <v>74</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E1" s="100" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="94" t="s">
-        <v>302</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10005,25 +10005,25 @@
     </row>
     <row r="7" spans="1:7" s="52" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>297</v>
-      </c>
       <c r="D7" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10068,7 +10068,7 @@
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B15" s="9">
         <v>2.5</v>
@@ -10077,10 +10077,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E15" s="126" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -10206,7 +10206,7 @@
         <v>100</v>
       </c>
       <c r="E1" s="100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>102</v>
@@ -10215,13 +10215,13 @@
         <v>87</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I1" s="98" t="s">
+        <v>442</v>
+      </c>
+      <c r="J1" s="98" t="s">
         <v>443</v>
-      </c>
-      <c r="J1" s="98" t="s">
-        <v>444</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>169</v>
@@ -10248,7 +10248,7 @@
         <v>170</v>
       </c>
       <c r="S1" s="102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>95</v>
@@ -10257,25 +10257,25 @@
         <v>96</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AB1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -10358,28 +10358,28 @@
         <v>101</v>
       </c>
       <c r="E7" s="41" t="s">
+        <v>877</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>879</v>
-      </c>
       <c r="G7" s="46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H7" s="61" t="s">
         <v>103</v>
       </c>
       <c r="I7" s="114" t="s">
+        <v>444</v>
+      </c>
+      <c r="J7" s="114" t="s">
         <v>445</v>
-      </c>
-      <c r="J7" s="114" t="s">
-        <v>446</v>
       </c>
       <c r="K7" s="61" t="s">
         <v>83</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M7" s="47" t="s">
         <v>83</v>
@@ -10400,7 +10400,7 @@
         <v>83</v>
       </c>
       <c r="S7" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T7" s="43" t="s">
         <v>97</v>
@@ -10412,22 +10412,22 @@
         <v>83</v>
       </c>
       <c r="W7" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="X7" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="X7" s="42" t="s">
+      <c r="Y7" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="Y7" s="41" t="s">
+      <c r="Z7" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="Z7" s="41" t="s">
+      <c r="AA7" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="AA7" s="41" t="s">
-        <v>272</v>
-      </c>
       <c r="AB7" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10526,7 +10526,7 @@
     </row>
     <row r="14" spans="1:28" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B14" s="10">
         <v>3</v>
@@ -10535,16 +10535,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>914</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>414</v>
       </c>
       <c r="I14"/>
       <c r="S14" s="9"/>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="16" spans="1:28" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B16" s="10">
         <v>3</v>
@@ -10564,26 +10564,26 @@
         <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>414</v>
       </c>
       <c r="I16"/>
       <c r="S16" s="9"/>
       <c r="AB16" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
@@ -10592,16 +10592,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>913</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I18"/>
       <c r="S18" s="9"/>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -10622,13 +10622,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F20" s="174" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K20" s="9"/>
     </row>
@@ -10892,7 +10892,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10921,7 +10921,7 @@
         <v>178</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>179</v>
@@ -10992,10 +10992,10 @@
         <v>184</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="53"/>
@@ -11025,7 +11025,7 @@
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -11033,16 +11033,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>951</v>
+      </c>
+      <c r="B17" t="s">
+        <v>953</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>952</v>
       </c>
-      <c r="B17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>953</v>
-      </c>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E17" s="4">
         <v>1600</v>
@@ -11090,37 +11090,37 @@
         <v>104</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D1" s="95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="98" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="98" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="98" t="s">
-        <v>302</v>
-      </c>
       <c r="H1" s="98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J1" s="98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K1" s="98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L1" s="98" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>107</v>
@@ -11129,10 +11129,10 @@
         <v>108</v>
       </c>
       <c r="O1" s="98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P1" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11206,37 +11206,37 @@
         <v>19</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="M7" s="43" t="s">
         <v>23</v>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="O7" s="43"/>
       <c r="P7" s="120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="45"/>
     </row>
@@ -11304,37 +11304,37 @@
         <v>lig-3Frames-40GB</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="126" t="s">
         <v>873</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>874</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H13" s="10" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P13" s="162" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11349,34 +11349,34 @@
         <v>lig-3Frames-40GB</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E15" s="126" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H15" s="10" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P15" s="170" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11406,30 +11406,30 @@
         <v>lig-VC16GB</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H17" s="10" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="P17" s="115" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11446,22 +11446,22 @@
         <v>lig-VC16GB</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J19" s="4">
         <v>8</v>
@@ -11469,7 +11469,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="P19" s="115" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.25">
@@ -12347,70 +12347,70 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>552</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>208</v>
-      </c>
       <c r="E1" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>539</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>545</v>
-      </c>
       <c r="J1" s="37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L1" s="139" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q1" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="R1" s="37" t="s">
         <v>533</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2" s="140"/>
       <c r="L2" s="140"/>
     </row>
     <row r="3" spans="1:24" s="17" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="146" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B3" s="141"/>
       <c r="L3" s="141"/>
@@ -12501,54 +12501,54 @@
     </row>
     <row r="9" spans="1:24" s="44" customFormat="1" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="144"/>
       <c r="C9" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>527</v>
-      </c>
       <c r="E9" s="41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L9" s="144"/>
       <c r="M9" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N9" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O9" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="P9" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="P9" s="41" t="s">
-        <v>532</v>
-      </c>
       <c r="Q9" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R9" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
@@ -12602,25 +12602,25 @@
         <v>73</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>637</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>638</v>
-      </c>
       <c r="D1" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -12673,16 +12673,16 @@
     </row>
     <row r="9" spans="1:12" s="44" customFormat="1" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>246</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>639</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>247</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="53"/>
@@ -12737,54 +12737,54 @@
         <v>73</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>647</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>650</v>
-      </c>
       <c r="H1" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>653</v>
-      </c>
       <c r="K1" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G2" s="33"/>
       <c r="I2" s="33"/>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="3" spans="1:16" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G3" s="23"/>
       <c r="I3" s="23"/>
@@ -12873,50 +12873,50 @@
     </row>
     <row r="9" spans="1:16" s="44" customFormat="1" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C9" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>645</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>646</v>
-      </c>
       <c r="E9" s="43" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G9" s="43"/>
       <c r="H9" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M9" s="41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N9" s="41" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O9" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="P9" s="41" t="s">
         <v>662</v>
-      </c>
-      <c r="P9" s="41" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12985,33 +12985,33 @@
         <v>178</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D2" s="33"/>
       <c r="F2" s="33"/>
@@ -13019,7 +13019,7 @@
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D3" s="23"/>
       <c r="F3" s="23"/>
@@ -13086,79 +13086,79 @@
     </row>
     <row r="9" spans="1:12" s="44" customFormat="1" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="41" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G9" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="I9" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="K9" s="41" t="s">
         <v>676</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>677</v>
-      </c>
       <c r="L9" s="41" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>678</v>
+      </c>
+      <c r="B12" t="s">
         <v>679</v>
       </c>
-      <c r="B12" t="s">
-        <v>680</v>
-      </c>
       <c r="G12" t="s">
+        <v>681</v>
+      </c>
+      <c r="H12" t="s">
+        <v>557</v>
+      </c>
+      <c r="I12" t="s">
+        <v>558</v>
+      </c>
+      <c r="J12" t="s">
         <v>682</v>
-      </c>
-      <c r="H12" t="s">
-        <v>558</v>
-      </c>
-      <c r="I12" t="s">
-        <v>559</v>
-      </c>
-      <c r="J12" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G14" t="s">
+        <v>681</v>
+      </c>
+      <c r="H14" t="s">
+        <v>557</v>
+      </c>
+      <c r="I14" t="s">
+        <v>558</v>
+      </c>
+      <c r="J14" t="s">
         <v>682</v>
-      </c>
-      <c r="H14" t="s">
-        <v>558</v>
-      </c>
-      <c r="I14" t="s">
-        <v>559</v>
-      </c>
-      <c r="J14" t="s">
-        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -13195,7 +13195,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>122</v>
@@ -13207,26 +13207,26 @@
         <v>178</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>695</v>
-      </c>
       <c r="J1" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K1" s="37"/>
       <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B2" s="33"/>
       <c r="E2" s="33"/>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B3" s="23"/>
       <c r="E3" s="23"/>
@@ -13311,34 +13311,34 @@
     </row>
     <row r="9" spans="1:12" s="44" customFormat="1" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C9" s="41" t="s">
+        <v>686</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>687</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="E9" s="43" t="s">
         <v>688</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>689</v>
-      </c>
       <c r="F9" s="41" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
@@ -13346,99 +13346,99 @@
     <row r="10" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="D12" t="s">
         <v>702</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D12" t="s">
-        <v>703</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>711</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" t="s">
         <v>702</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="D14" t="s">
-        <v>703</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -13484,106 +13484,106 @@
         <v>76</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>761</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>723</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="H1" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>743</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>724</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="U1" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="V1" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>746</v>
-      </c>
       <c r="AJ1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK1" s="37"/>
       <c r="AL1" s="37"/>
@@ -13592,7 +13592,7 @@
     </row>
     <row r="2" spans="1:40" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B2" s="33"/>
       <c r="J2" s="33"/>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="3" spans="1:40" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B3" s="23"/>
       <c r="J3" s="23"/>
@@ -13850,107 +13850,107 @@
     </row>
     <row r="9" spans="1:40" s="44" customFormat="1" ht="267" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>749</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="E9" s="41" t="s">
+        <v>768</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>767</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>751</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>788</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>750</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>769</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>768</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="M9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="N9" s="41" t="s">
         <v>752</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>789</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>751</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>753</v>
-      </c>
       <c r="O9" s="41" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P9" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>764</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="U9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="V9" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="W9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="X9" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="Q9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="R9" s="41" t="s">
-        <v>765</v>
-      </c>
-      <c r="S9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="T9" s="41" t="s">
-        <v>766</v>
-      </c>
-      <c r="U9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="V9" s="41" t="s">
-        <v>767</v>
-      </c>
-      <c r="W9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="X9" s="41" t="s">
+      <c r="Y9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z9" s="41" t="s">
         <v>756</v>
       </c>
-      <c r="Y9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="Z9" s="41" t="s">
+      <c r="AA9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="AB9" s="41" t="s">
         <v>757</v>
       </c>
-      <c r="AA9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="AB9" s="41" t="s">
+      <c r="AC9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD9" s="41" t="s">
         <v>758</v>
       </c>
-      <c r="AC9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="AD9" s="41" t="s">
+      <c r="AE9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="AF9" s="41" t="s">
+        <v>773</v>
+      </c>
+      <c r="AG9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="AH9" s="41" t="s">
         <v>759</v>
       </c>
-      <c r="AE9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="AF9" s="41" t="s">
-        <v>774</v>
-      </c>
-      <c r="AG9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="AH9" s="41" t="s">
-        <v>760</v>
-      </c>
       <c r="AI9" s="41" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AJ9" s="41"/>
       <c r="AK9" s="41"/>
@@ -13975,25 +13975,25 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" t="s">
         <v>771</v>
-      </c>
-      <c r="C15" t="s">
-        <v>772</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -14016,19 +14016,19 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" t="s">
         <v>776</v>
-      </c>
-      <c r="C17" t="s">
-        <v>777</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -14046,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AE17" s="4" t="b">
         <v>1</v>
@@ -14104,70 +14104,70 @@
         <v>76</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1" s="154" t="s">
         <v>782</v>
       </c>
-      <c r="D1" s="154" t="s">
-        <v>783</v>
-      </c>
       <c r="E1" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>723</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>724</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>725</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>735</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>746</v>
-      </c>
       <c r="X1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y1" s="37"/>
       <c r="Z1" s="37"/>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="2" spans="1:28" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -14200,7 +14200,7 @@
     </row>
     <row r="3" spans="1:28" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -14363,69 +14363,69 @@
     </row>
     <row r="9" spans="1:28" s="44" customFormat="1" ht="267" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D9" s="158"/>
       <c r="E9" s="41" t="s">
+        <v>748</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>768</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>767</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>751</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>788</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>750</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>752</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>749</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>769</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>768</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>752</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>789</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>751</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>753</v>
-      </c>
-      <c r="L9" s="41" t="s">
+      <c r="N9" s="41" t="s">
+        <v>764</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q9" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="M9" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>765</v>
-      </c>
-      <c r="O9" s="41" t="s">
-        <v>766</v>
-      </c>
-      <c r="P9" s="41" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q9" s="41" t="s">
+      <c r="R9" s="41" t="s">
         <v>756</v>
       </c>
-      <c r="R9" s="41" t="s">
+      <c r="S9" s="41" t="s">
         <v>757</v>
       </c>
-      <c r="S9" s="41" t="s">
+      <c r="T9" s="41" t="s">
         <v>758</v>
       </c>
-      <c r="T9" s="41" t="s">
+      <c r="U9" s="41" t="s">
+        <v>773</v>
+      </c>
+      <c r="V9" s="41" t="s">
         <v>759</v>
       </c>
-      <c r="U9" s="41" t="s">
-        <v>774</v>
-      </c>
-      <c r="V9" s="41" t="s">
-        <v>760</v>
-      </c>
       <c r="W9" s="41" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="X9" s="41"/>
       <c r="Y9" s="41"/>
@@ -14446,19 +14446,19 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
         <v>771</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>771</v>
+      </c>
+      <c r="H15" t="s">
         <v>772</v>
-      </c>
-      <c r="F15" t="s">
-        <v>772</v>
-      </c>
-      <c r="H15" t="s">
-        <v>773</v>
       </c>
       <c r="I15" s="4">
         <v>3</v>
@@ -14472,22 +14472,22 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E17" t="s">
         <v>776</v>
       </c>
-      <c r="E17" t="s">
-        <v>777</v>
-      </c>
       <c r="H17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U17" s="4" t="b">
         <v>1</v>
@@ -14498,13 +14498,13 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>786</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>788</v>
-      </c>
       <c r="C19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -14547,25 +14547,25 @@
         <v>76</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>809</v>
-      </c>
       <c r="E1" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>797</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
@@ -14574,7 +14574,7 @@
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -14585,7 +14585,7 @@
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -14668,22 +14668,22 @@
       <c r="A9" s="39"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
+        <v>803</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>804</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>805</v>
-      </c>
       <c r="E9" s="41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
@@ -14694,19 +14694,19 @@
     <row r="10" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>800</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F12" s="4">
         <v>1864</v>
@@ -14720,19 +14720,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F14" s="4">
         <v>3276</v>
@@ -14781,35 +14781,35 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>288</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -14864,19 +14864,19 @@
     </row>
     <row r="9" spans="1:13" s="80" customFormat="1" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>184</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="92"/>
@@ -15157,28 +15157,28 @@
         <v>111</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="100" t="s">
         <v>453</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="F1" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="100" t="s">
         <v>455</v>
       </c>
-      <c r="G1" s="100" t="s">
-        <v>456</v>
-      </c>
       <c r="H1" s="102" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="100" t="s">
         <v>314</v>
-      </c>
-      <c r="I1" s="100" t="s">
-        <v>315</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>112</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -15225,32 +15225,32 @@
     <row r="7" spans="1:16" s="42" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="49" t="s">
+        <v>827</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>828</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="F7" s="49" t="s">
         <v>829</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>830</v>
-      </c>
       <c r="G7" s="49" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H7" s="49" t="s">
         <v>130</v>
       </c>
       <c r="I7" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="J7" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="J7" s="40" t="s">
-        <v>317</v>
-      </c>
       <c r="K7" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
@@ -15338,22 +15338,22 @@
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B15" s="162" t="s">
         <v>940</v>
-      </c>
-      <c r="B15" s="162" t="s">
-        <v>941</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>881</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -15404,7 +15404,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>134</v>
@@ -15419,7 +15419,7 @@
         <v>126</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -15469,25 +15469,25 @@
     </row>
     <row r="7" spans="1:16" s="42" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>393</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>394</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="40"/>
@@ -15547,26 +15547,26 @@
     </row>
     <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>EnclosureGroup!$A$15</f>
         <v>EG-3F-VC40F8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F15" s="162" t="b">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15637,7 +15637,7 @@
         <v>123</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>109</v>
@@ -15649,7 +15649,7 @@
         <v>136</v>
       </c>
       <c r="H1" s="102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>141</v>
@@ -15664,31 +15664,31 @@
         <v>143</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N1" s="102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O1" s="102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P1" s="102" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q1" s="102" t="s">
         <v>819</v>
       </c>
-      <c r="Q1" s="102" t="s">
-        <v>820</v>
-      </c>
       <c r="R1" s="102" t="s">
+        <v>915</v>
+      </c>
+      <c r="S1" s="102" t="s">
         <v>916</v>
       </c>
-      <c r="S1" s="102" t="s">
-        <v>917</v>
-      </c>
       <c r="T1" s="102" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U1" s="102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>131</v>
@@ -15700,10 +15700,10 @@
         <v>148</v>
       </c>
       <c r="Y1" s="102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z1" s="102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>147</v>
@@ -15712,16 +15712,16 @@
         <v>144</v>
       </c>
       <c r="AC1" s="102" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AD1" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AE1" s="102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF1" s="102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>137</v>
@@ -15739,7 +15739,7 @@
         <v>140</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -15792,7 +15792,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -15832,82 +15832,82 @@
         <v>63</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>54</v>
       </c>
       <c r="J7" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K7" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L7" s="50" t="s">
+        <v>814</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>813</v>
+      </c>
+      <c r="Q7" s="49" t="s">
         <v>815</v>
       </c>
-      <c r="M7" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>818</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>814</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>816</v>
-      </c>
       <c r="R7" s="49" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S7" s="49" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="T7" s="49" t="s">
         <v>151</v>
       </c>
       <c r="U7" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V7" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="W7" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="W7" s="49" t="s">
-        <v>260</v>
-      </c>
       <c r="X7" s="49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Y7" s="49" t="s">
         <v>152</v>
       </c>
       <c r="Z7" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AA7" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB7" s="47" t="s">
         <v>145</v>
       </c>
       <c r="AC7" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AD7" s="48" t="s">
         <v>55</v>
       </c>
       <c r="AE7" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF7" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AG7" s="40" t="s">
         <v>56</v>
@@ -15925,7 +15925,7 @@
         <v>128</v>
       </c>
       <c r="AL7" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -16194,53 +16194,53 @@
     </row>
     <row r="16" spans="1:38" s="10" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E16" s="10" t="str">
         <f>EnclosureGroup!$A$15</f>
         <v>EG-3F-VC40F8</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="N16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -16248,49 +16248,49 @@
         <v>1</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AB16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AE16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AK16" s="10" t="b">
         <v>1</v>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="4:19" x14ac:dyDescent="0.25">
@@ -16725,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="4:19" x14ac:dyDescent="0.25">
@@ -16803,16 +16803,16 @@
         <v>76</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="103" t="s">
         <v>318</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>319</v>
       </c>
       <c r="E1" s="85" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>109</v>
@@ -16836,19 +16836,19 @@
         <v>143</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O1" s="102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P1" s="102" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Q1" s="102" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="R1" s="102" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>131</v>
@@ -16860,7 +16860,7 @@
         <v>148</v>
       </c>
       <c r="V1" s="102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>147</v>
@@ -16872,7 +16872,7 @@
         <v>146</v>
       </c>
       <c r="Z1" s="102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>137</v>
@@ -16890,7 +16890,7 @@
         <v>140</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="20" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16963,7 +16963,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="19"/>
@@ -16986,10 +16986,10 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="43" t="s">
@@ -17002,49 +17002,49 @@
         <v>63</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J7" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>252</v>
-      </c>
       <c r="N7" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O7" s="49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P7" s="49" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q7" s="49" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="R7" s="49" t="s">
         <v>151</v>
       </c>
       <c r="S7" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="T7" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="T7" s="49" t="s">
-        <v>260</v>
-      </c>
       <c r="U7" s="49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V7" s="49" t="s">
         <v>152</v>
       </c>
       <c r="W7" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X7" s="47" t="s">
         <v>145</v>
@@ -17053,7 +17053,7 @@
         <v>55</v>
       </c>
       <c r="Z7" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA7" s="40" t="s">
         <v>56</v>
@@ -17071,7 +17071,7 @@
         <v>128</v>
       </c>
       <c r="AF7" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="8" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17319,25 +17319,25 @@
     </row>
     <row r="17" spans="1:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E17" s="89"/>
       <c r="F17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G17" t="str">
         <f>EnclosureGroup!$A$15</f>
         <v>EG-3F-VC40F8</v>
       </c>
       <c r="H17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -17387,25 +17387,25 @@
     </row>
     <row r="19" spans="1:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B19"/>
       <c r="C19" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E19" s="89"/>
       <c r="F19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G19" t="str">
         <f>EnclosureGroup!$A$15</f>
         <v>EG-3F-VC40F8</v>
       </c>
       <c r="H19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -17451,25 +17451,25 @@
     </row>
     <row r="21" spans="1:32" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B21"/>
       <c r="C21" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E21" s="89"/>
       <c r="F21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G21" t="str">
         <f>EnclosureGroup!$A$15</f>
         <v>EG-3F-VC40F8</v>
       </c>
       <c r="H21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -17888,48 +17888,48 @@
         <v>73</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="102" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="H1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="33"/>
@@ -17998,7 +17998,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>44</v>
@@ -18010,13 +18010,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>48</v>
@@ -18028,10 +18028,10 @@
         <v>50</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P8" s="46"/>
     </row>
@@ -18083,22 +18083,22 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G16" s="4">
         <v>4000</v>
@@ -18112,22 +18112,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G17" s="4">
         <v>4000</v>
@@ -18141,22 +18141,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G18" s="4">
         <v>10000</v>
@@ -18170,22 +18170,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G19" s="4">
         <v>10000</v>
@@ -18199,22 +18199,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G20" s="4">
         <v>16000</v>
@@ -18228,22 +18228,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G21" s="4">
         <v>16000</v>
@@ -18771,10 +18771,10 @@
         <v>156</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>155</v>
@@ -18783,25 +18783,25 @@
         <v>76</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>157</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>158</v>
@@ -18810,12 +18810,12 @@
         <v>164</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -18869,55 +18869,55 @@
         <v>65</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G7" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>839</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="I7" s="49" t="s">
         <v>840</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="J7" s="40" t="s">
         <v>841</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="K7" s="40" t="s">
+        <v>849</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>842</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>850</v>
-      </c>
-      <c r="L7" s="40" t="s">
+      <c r="M7" s="40" t="s">
         <v>843</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="N7" s="40" t="s">
         <v>844</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="O7" s="49" t="s">
         <v>845</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="P7" s="49" t="s">
         <v>846</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="Q7" s="40" t="s">
         <v>847</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="R7" s="40" t="s">
         <v>848</v>
-      </c>
-      <c r="R7" s="40" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -18972,7 +18972,7 @@
     </row>
     <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="163" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -19045,36 +19045,36 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="s">
+        <v>832</v>
+      </c>
+      <c r="H22" t="s">
         <v>833</v>
       </c>
-      <c r="H22" t="s">
-        <v>834</v>
-      </c>
       <c r="I22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22"/>
       <c r="L22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -19082,10 +19082,10 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="Q22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="40" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="163" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -19391,105 +19391,105 @@
         <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>177</v>
       </c>
       <c r="F1" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>340</v>
-      </c>
       <c r="I1" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="T1" s="37" t="s">
-        <v>358</v>
-      </c>
       <c r="U1" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="V1" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="W1" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="W1" s="37" t="s">
-        <v>369</v>
-      </c>
       <c r="X1" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y1" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z1" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AA1" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AB1" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AC1" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="AC1" s="37" t="s">
-        <v>379</v>
-      </c>
       <c r="AD1" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF1" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="AE1" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AG1" s="37" t="s">
         <v>382</v>
-      </c>
-      <c r="AG1" s="37" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19526,100 +19526,100 @@
         <v>65</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>810</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="E7" s="107" t="s">
-        <v>343</v>
-      </c>
-      <c r="F7" s="107" t="s">
-        <v>344</v>
-      </c>
-      <c r="G7" s="107" t="s">
+      <c r="I7" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="L7" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="M7" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="N7" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="R7" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>811</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>360</v>
-      </c>
-      <c r="K7" s="83" t="s">
-        <v>361</v>
-      </c>
-      <c r="L7" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="M7" s="106" t="s">
-        <v>363</v>
-      </c>
-      <c r="N7" s="106" t="s">
-        <v>363</v>
-      </c>
-      <c r="O7" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="P7" s="83" t="s">
+      <c r="S7" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="T7" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="U7" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="V7" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="Q7" s="106" t="s">
-        <v>363</v>
-      </c>
-      <c r="R7" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="S7" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="T7" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="U7" s="83" t="s">
+      <c r="W7" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="X7" s="83" t="s">
         <v>371</v>
       </c>
-      <c r="V7" s="106" t="s">
-        <v>366</v>
-      </c>
-      <c r="W7" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="X7" s="83" t="s">
-        <v>372</v>
-      </c>
       <c r="Y7" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z7" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA7" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB7" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC7" s="83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD7" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE7" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF7" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG7" s="106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19649,71 +19649,71 @@
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E17" t="s">
+        <v>902</v>
+      </c>
+      <c r="F17" t="s">
         <v>903</v>
       </c>
-      <c r="F17" t="s">
-        <v>904</v>
-      </c>
       <c r="G17" t="s">
+        <v>900</v>
+      </c>
+      <c r="H17" t="s">
         <v>901</v>
-      </c>
-      <c r="H17" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B19" s="162" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C19" s="162"/>
       <c r="E19" t="s">
+        <v>904</v>
+      </c>
+      <c r="F19" t="s">
         <v>905</v>
       </c>
-      <c r="F19" t="s">
-        <v>906</v>
-      </c>
       <c r="G19" t="s">
+        <v>900</v>
+      </c>
+      <c r="H19" t="s">
         <v>901</v>
-      </c>
-      <c r="H19" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B21" s="162" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C21" s="162"/>
       <c r="E21" t="s">
+        <v>906</v>
+      </c>
+      <c r="F21" t="s">
         <v>907</v>
       </c>
-      <c r="F21" t="s">
-        <v>908</v>
-      </c>
       <c r="G21" t="s">
+        <v>900</v>
+      </c>
+      <c r="H21" t="s">
         <v>901</v>
-      </c>
-      <c r="H21" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="160"/>
       <c r="C22" s="160"/>
       <c r="H22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -19838,63 +19838,63 @@
         <v>73</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="125" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="D1" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="E1" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>476</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>477</v>
       </c>
       <c r="O1" s="36" t="s">
         <v>172</v>
       </c>
       <c r="P1" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q1" s="36" t="s">
         <v>478</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:17" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19920,55 +19920,55 @@
     </row>
     <row r="7" spans="1:17" s="43" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="E7" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="I7" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="J7" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>484</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="I7" s="43" t="s">
+      <c r="K7" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="P7" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="Q7" s="43" t="s">
         <v>499</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="N7" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q7" s="43" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -20000,14 +20000,14 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B15">
         <v>7199</v>
@@ -20025,7 +20025,7 @@
         <v>0.75</v>
       </c>
       <c r="G15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
@@ -20040,7 +20040,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B17">
         <v>7199</v>
@@ -20058,7 +20058,7 @@
         <v>0.75</v>
       </c>
       <c r="G17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P17" s="81"/>
       <c r="Q17" s="81"/>
@@ -20330,16 +20330,16 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>292</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>293</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
@@ -20347,12 +20347,12 @@
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20408,10 +20408,10 @@
     <row r="9" spans="1:13" s="80" customFormat="1" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -20460,13 +20460,13 @@
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B15" s="4">
         <v>8080</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -20676,28 +20676,28 @@
         <v>73</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="125" t="s">
         <v>489</v>
       </c>
-      <c r="D1" s="125" t="s">
-        <v>490</v>
-      </c>
       <c r="E1" s="125" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:9" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20724,19 +20724,19 @@
     </row>
     <row r="7" spans="1:9" s="43" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>482</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>483</v>
       </c>
       <c r="F7" s="41"/>
     </row>
@@ -20766,7 +20766,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -20780,10 +20780,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C15">
         <v>600</v>
@@ -21123,51 +21123,51 @@
         <v>73</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="102" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="J1" s="105" t="s">
         <v>137</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="105" t="s">
-        <v>330</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="33"/>
@@ -21237,7 +21237,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>44</v>
@@ -21249,19 +21249,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>48</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>49</v>
@@ -21270,10 +21270,10 @@
         <v>50</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="46"/>
     </row>
@@ -21960,7 +21960,7 @@
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -22003,13 +22003,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="40" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>228</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>160</v>
@@ -22027,10 +22027,10 @@
         <v>163</v>
       </c>
       <c r="J7" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -22501,15 +22501,15 @@
         <v>173</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -22560,13 +22560,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" t="s">
         <v>430</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="E15" s="7" t="b">
         <v>0</v>
@@ -22604,16 +22604,16 @@
   <sheetData>
     <row r="1" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>189</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>190</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>177</v>
@@ -22622,21 +22622,21 @@
         <v>178</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="J1" s="36" t="s">
         <v>193</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="21"/>
       <c r="I2" s="129"/>
@@ -22664,34 +22664,34 @@
     </row>
     <row r="8" spans="1:10" s="42" customFormat="1" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="C8" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="D8" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="E8" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="F8" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="I8" s="132" t="s">
+        <v>504</v>
+      </c>
+      <c r="J8" s="43" t="s">
         <v>200</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>503</v>
-      </c>
-      <c r="I8" s="132" t="s">
-        <v>505</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="75" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -22721,28 +22721,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="111" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="F15" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="127" t="s">
+        <v>503</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="I15" s="127" t="s">
-        <v>504</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -22782,7 +22782,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -22792,12 +22792,12 @@
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -22852,10 +22852,10 @@
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>205</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>206</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="42"/>
@@ -22876,10 +22876,10 @@
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -22920,34 +22920,34 @@
         <v>73</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>178</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:14" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -23005,21 +23005,21 @@
     </row>
     <row r="9" spans="1:14" s="44" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>398</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>513</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>399</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="43"/>
       <c r="G9" s="41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="43"/>
@@ -23036,16 +23036,16 @@
     <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -23092,7 +23092,7 @@
         <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>118</v>
@@ -23189,13 +23189,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E9" s="41" t="s">
+        <v>928</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>929</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>930</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>30</v>
@@ -23236,13 +23236,13 @@
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D15" s="4" t="b">
         <v>0</v>
@@ -23250,13 +23250,13 @@
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D17" s="4" t="b">
         <v>0</v>
@@ -23264,13 +23264,13 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D19" s="4" t="b">
         <v>0</v>
@@ -23278,31 +23278,31 @@
     </row>
     <row r="23" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C23" s="102"/>
       <c r="D23" s="102"/>
       <c r="E23" s="102" t="s">
+        <v>930</v>
+      </c>
+      <c r="F23" s="102" t="s">
         <v>931</v>
       </c>
-      <c r="F23" s="102" t="s">
-        <v>932</v>
-      </c>
       <c r="G23" s="102" t="s">
+        <v>822</v>
+      </c>
+      <c r="H23" s="102" t="s">
         <v>823</v>
       </c>
-      <c r="H23" s="102" t="s">
+      <c r="I23" s="102" t="s">
         <v>824</v>
-      </c>
-      <c r="I23" s="102" t="s">
-        <v>825</v>
       </c>
       <c r="J23" s="102"/>
       <c r="K23" s="102" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
@@ -23316,31 +23316,31 @@
     </row>
     <row r="25" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="102" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C25" s="102"/>
       <c r="D25" s="102"/>
       <c r="E25" s="102" t="s">
+        <v>865</v>
+      </c>
+      <c r="F25" s="102" t="s">
         <v>866</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="G25" s="102" t="s">
         <v>867</v>
       </c>
-      <c r="G25" s="102" t="s">
+      <c r="H25" s="102" t="s">
+        <v>823</v>
+      </c>
+      <c r="I25" s="102" t="s">
         <v>868</v>
-      </c>
-      <c r="H25" s="102" t="s">
-        <v>824</v>
-      </c>
-      <c r="I25" s="102" t="s">
-        <v>869</v>
       </c>
       <c r="J25" s="102"/>
       <c r="K25" s="102" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -23351,21 +23351,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B306D734CEBD84FBBC41786449802E3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16005ef843dd214786fd86ac676497e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54a4fa2c-6341-4596-b8d8-a2e023346efc" xmlns:ns4="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2325c866b17d621340695414d4ca9b0e" ns3:_="" ns4:_="">
     <xsd:import namespace="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
@@ -23582,32 +23567,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7124AFE1-C9C5-46E7-A048-9DDD62293557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23624,4 +23599,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01-deploy-synergy-from-excel/synergy.obs.hpecic.net.xlsx
+++ b/01-deploy-synergy-from-excel/synergy.obs.hpecic.net.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="11" r:id="rId1"/>
@@ -6045,7 +6045,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7B0F21-7430-464B-906C-C94D6E6D6B12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C7B0F21-7430-464B-906C-C94D6E6D6B12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6154,7 +6154,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D0E9D9-B254-4185-8C92-46C8617F66F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01D0E9D9-B254-4185-8C92-46C8617F66F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6263,7 +6263,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04F323B-337A-4F30-82FA-13706B020497}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D04F323B-337A-4F30-82FA-13706B020497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10889,10 +10889,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11045,7 +11045,7 @@
         <v>508</v>
       </c>
       <c r="E17" s="4">
-        <v>1600</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -22475,7 +22475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -22483,10 +22483,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22582,8 +22582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
@@ -22755,7 +22755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
@@ -22763,8 +22763,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="76" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="4" customWidth="1"/>
@@ -23351,6 +23351,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B306D734CEBD84FBBC41786449802E3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16005ef843dd214786fd86ac676497e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54a4fa2c-6341-4596-b8d8-a2e023346efc" xmlns:ns4="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2325c866b17d621340695414d4ca9b0e" ns3:_="" ns4:_="">
     <xsd:import namespace="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
@@ -23567,22 +23582,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7124AFE1-C9C5-46E7-A048-9DDD62293557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23599,29 +23624,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08671FF-7385-4DFE-A0B1-F772E0CBF546}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43ECCFC7-29C2-4C1C-BA35-7A8B581B0FD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="54a4fa2c-6341-4596-b8d8-a2e023346efc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f7c671b8-1a97-4c58-b6a9-b872d1c47c8e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>